--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>39.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>国泰中证军工ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>102.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>161024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>富国中证军工指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>76.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>26.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>512710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>富国中证军工龙头ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>60.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9873</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>512680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>广发中证军工ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000596</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数A</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002199</t>
+          <t>630001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数C</t>
+          <t>华商领先企业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502003</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>164402</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>前海开源中航军工指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>000596</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>前海开源中证军工指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>002199</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>前海开源中证军工指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>630001</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商领先企业混合</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>163115</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数A</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>164402</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>前海开源中航军工指数</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161024</t>
+          <t>160643</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>010364</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001751</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华商信用增强债券A</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001752</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华商信用增强债券C</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001924</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏国企改革灵活配置混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1388,25 +1718,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010364</t>
+          <t>512810</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
+          <t>华宝兴业中证军工ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1416,25 +1756,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160643</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏华中证空天一体军工指数（LOF）A</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1472,26 +1832,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国泰中证军工ETF</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1500,26 +1870,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>512680</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发中证军工ETF</t>
+          <t>华安大安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1528,26 +1908,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>512810</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1556,26 +1946,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1584,26 +1984,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>512710</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>富国中证军工龙头ETF</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>99.11</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1612,26 +2022,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>005209</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>东吴双三角股票A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1640,25 +2060,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>92.22</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1668,25 +2098,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>80.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1696,26 +2136,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>005210</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>东吴双三角股票C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1724,26 +2174,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>001751</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>华商信用增强债券A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1752,26 +2212,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>001752</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>华商信用增强债券C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1780,26 +2250,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1834,15 +2314,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002885</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3348,4 +3349,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4917</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3745,4 +3746,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3754,7 +3755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3765,17 +3766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3785,14 +3806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.92</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3801,14 +3844,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.08</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3817,14 +3882,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.4</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3833,13 +3920,225 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>47</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4037,7 +4038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4048,17 +4049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4068,14 +4089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.75</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4084,14 +4127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.92</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4100,14 +4165,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.08</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4116,14 +4203,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.4</v>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4132,13 +4241,165 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>47</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4282,7 +4283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,17 +4294,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4313,14 +4334,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.91</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4329,14 +4372,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.75</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4345,14 +4410,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.92</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4361,14 +4448,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.08</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4377,14 +4486,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.4</v>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4393,13 +4524,447 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>24.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.53</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.91</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.75</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>10.92</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>9.08</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>9.4</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>24.44</v>
       </c>
     </row>
@@ -600,6 +617,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1391,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1673,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2069,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2581,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3131,7 +3392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600316-洪都航空.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>4.78</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.53</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>3.91</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>10.92</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>9.08</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>9.4</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>47</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>24.44</v>
       </c>
     </row>
@@ -616,7 +633,2283 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9873</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -860,7 +3153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1652,7 +3945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1934,7 +4227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2330,7 +4623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2842,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3390,1846 +5683,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>050009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8152</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>102.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1598</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证军工指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2972</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.0938</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512710</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证军工龙头ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.9873</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512680</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7780</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5707</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5689</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5689</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>164402</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源中航军工指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4564</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000596</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3948</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3841</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163115</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3818</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3553</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3553</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3526</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001239</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长盛国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3411</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002199</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2627</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000264</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时内需增长混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001924</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1814</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1766</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160643</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1686</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1591</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010364</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000598</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长盛生态环境主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1311</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1136</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1080</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>512560</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>502003</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>512810</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华宝兴业中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>98.89</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>165528</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>80.05</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001751</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华商信用增强债券A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001752</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>华商信用增强债券C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>